--- a/data/hotels_by_city/Dallas/Dallas_shard_386.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_386.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="756">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Arpit D</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -178,6 +181,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>JMDWD</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r487122828-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
@@ -214,6 +220,9 @@
 The room was immaculate. There was nice music playing from the TV when we walked in and the room was set to a comfortable 68. We connected to the Internet with the password provided with no problem. We watched several movies before going to bed. One issue was there was no binder with information about the hotel amenities or local attractions in the room. That is useful to give a guess ideas about places to eat or visit while staying. I did not want to dig through the brochure rack on the first floor. The over...My family and I were going to be in town for a quick overnight trip.(A shopping trip at Ikea!) Upon researching hotel and calling a few this particular location stood out from the rest. The hotel clerk was friendly, and answered my questions with knowledge and ease.We arrived later than planned but my reservation was still intact. The desk clerk was not at the desk when we arrived. But there was a nice sign letting us know that they would return shortly..... helping another guest. While we waited we noticed the cleanliness of the lobby as well as the availability of fruit water. We could also see into the Suite Shop. There was a nice variety of snacks and microwaveable foods. Once the desk clerk arrived we was quickly checked in. I was able to get an extra pillow and blanket with ease.The room was immaculate. There was nice music playing from the TV when we walked in and the room was set to a comfortable 68. We connected to the Internet with the password provided with no problem. We watched several movies before going to bed. One issue was there was no binder with information about the hotel amenities or local attractions in the room. That is useful to give a guess ideas about places to eat or visit while staying. I did not want to dig through the brochure rack on the first floor. The over night stay was perfect. We all had a great nights sleep.The next day we ventured downstairs for breakfast. We found it with the help of another guest. Once we arrived there was a great selection of food available. The cinnamon rolls were delicious. Wish I had 2. All of us was able to find what we wanted for breakfast. I had pancakes, eggs (omelet and boiled), sausage with orange juice and fruit water from the lobby. My husband has cereal, bagel, yogurt, oatmeal and orange juice. He did not like the orange juice. My daughter had yogurt, scrambled eggs, sausage, blueberry muffin, and orange juice. There was more to choose from. Loved it. While at the hotel we noticed the game room, pool, exercise room and business center. We also noticed there were rooms available that could be used for events. We did not use either of these services but they were ready and available. I was happy to see that there was a sign advertising a church service being held in the hotel. Wish I knew before we was checking out. We would have attended.Checking out was a breeze. And we was at Ikea in 3 minutes. We will definitely say here for our next shopping trip.More</t>
   </si>
   <si>
+    <t>jasonlU4560CQ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r487008464-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -229,6 +238,9 @@
     <t>The hotel staff was very nice. The staff accommodated all our needs. Hotel was priced just right. Rooms were very clean and the breakfast was  decent. Will stay at this location again if I'm in the Frisco area.More</t>
   </si>
   <si>
+    <t>Peggy W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r484820535-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -256,6 +268,9 @@
     <t>The room was satisfactory,  parking was easy (large area near the outside door), and the daily breakfast provided several good options, even hot oatmeal for my husband. Check-in was hassle-free, as was check-out. When our first grandchild arrives in Texas in June, we will be "keeping the road hot" between Arkansas and Frisco! This hotel will likely see us again!More</t>
   </si>
   <si>
+    <t>John C C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r478529077-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -283,6 +298,9 @@
     <t>The cleanliness of room was fair but of the bathroom, specifically, was poor. The tub was disgusting. I don't know if it is stained filthy for some reason or if it actually was filthy but I laid a towel down on floor of tub so I didn't have to stand on it. The bathroom floor was super sticky which never seems good. The air conditioner was SO loud and inefficient and the walls are PAPER thin so I could hear conversations late into the night plus the dude next door snoring all night. I was not pleased but just needed to get out of there early in the morning so I didn't complain in person.More</t>
   </si>
   <si>
+    <t>khirvine</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r476838192-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -301,6 +319,9 @@
     <t>Hotel staff was very welcoming and friendly when we arrived. My room was perfect....Bed was very comfortable, air conditioner was just like I like it...Cold. Breakfast was wonderful. I had scrambled eggs, bacon, and the very delicious cinnamon rolls. They also had sausage, pancakes, oatmeal, cereal, muffins, toast, fruit, and that is all I can remember. Hotel was very clean. I will be staying here again.More</t>
   </si>
   <si>
+    <t>texas-okie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r475674300-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -319,6 +340,9 @@
     <t>This property has a new G/M Brad Blanton. He is turning this property around. When you are in the North Dallas,TX---Frisco,TX area stay here. Great prices and even better new management working to make this THE place to stay in the area.More</t>
   </si>
   <si>
+    <t>SnowSeeker222</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r474372565-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -340,6 +364,9 @@
     <t>Loved my stay recently at this particular HI Express. New, trendy, and perfectly located for great nearby dining and shopping. Comfortable beds, and a cozy feel to this property. I also found the staff to be very friendly, and accommodating to my needs. Frisco is a a lovely town, and this hotels location made my stay in the area even more enjoyable.More</t>
   </si>
   <si>
+    <t>jeff s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r462813481-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -367,6 +394,9 @@
     <t>We got back in after being out all day and found out we had no maid service. We called the front desk and were told they typically TRY to do it every other day and if WE wanted to we could come down and get fresh towels and coffee. Plus, the hallways were musty stinky humid smelling. Don't bother folks!More</t>
   </si>
   <si>
+    <t>dbdurango</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r462548012-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -382,6 +412,9 @@
     <t xml:space="preserve">We had a comfortable stay at this hotel - we were skiing at copper mountain. The access to skiing isn't the greatest requiring a drive to the slopes and battling the parking maze. Rooms were small but clean and comfortable. The place is expensive for what you get at the height of the season. But then so is just about everywhere.  </t>
   </si>
   <si>
+    <t>Club2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r395538632-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -409,6 +442,9 @@
     <t>I have stayed in many hotels in US of A and around the world, small and large, family run B&amp;B to international brand luxury resorts.  This hotel is by far one of the worst that I have ever encountered.  I have called ahead and confirmed that my requested bed type as I have booked is available prior to arrival at the hotel.  Great.  Upon arrival, to my surprise the front desk lady told me they have no room available, other than saying "I'm sorry the room you have requested is not available" - she has no inclination nor willing to do anything to resolve the issue * a customer with his family left stranded at the hotel lobby *, not until I mentioned that I will have to call IHG/Corp support to figure something out since they are not willing to help or to honor the confirmed booking. Irresponsible hotel management team and lukewarm corporate customer support from IHG. I would never recommend this hotel to anyone, there are plenty of other hotels within walking distance from this particular location.  Lesson learned. More</t>
   </si>
   <si>
+    <t>Iba B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r394397692-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -433,6 +469,9 @@
     <t>I was put up at this hotel by my company for a business trip. The first room they put me had: 1- broken light bulb. 2- Busted door latch 3- Uneven loose bathroom floor tiles 4- mold in the shower/bat tub. Asked for a room change: no mold but still dealt with uneven and loose bathroom tiles. My stay was fully paid in advance by my company- a week later  I am still dealing with trying to get almost $300 worth of fraudulent credit card charges on my account. Also want to mention the unkept/dirty patio seating and pool.More</t>
   </si>
   <si>
+    <t>Kathy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r390876351-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -460,6 +499,9 @@
     <t>Our room was filthy. There was a blue pill in one of the dresser drawers. We took pictures. The night clerk allowed us to change rooms and inspect the new room before moving. However, management nor corporate returned my phone call regarding the pill or the unclean room. I spoke with Lakesha Willams who stated she would call me back. I'm still waiting on that call. I called corporate and completed a survey online giving derogatory remarks. No one called.The hallway carpet was dirty and the hallways were hot. The breakfast was decent.More</t>
   </si>
   <si>
+    <t>jschemmel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r387230804-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -484,6 +526,9 @@
     <t>Our room was clean but that seemed to be it. The hallway carpets are terribly stained and the stairwells were filthy, walking over the same plate of food left there several days in a row even after calling customer service. Overflowing trash cans in the main area and dining room. Our room was not stocked with wash clothes, typically not a big deal but waiting over 2 hours seemed excessive. A few days later still not stocked with wash clothes, calling down to the front desk to request them and was told we had to come and get them ourselves. Room microwave did not work. Rude staff at times and came back to a small amount of my nieces money was missing. I will not be staying here for our next trip down.More</t>
   </si>
   <si>
+    <t>gpreston24</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r386491464-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -508,6 +553,9 @@
     <t>Stayed on fifth floor, facing north.Pros:-Attractive lobby-Nice breakfast room, food overall better than you typically find in this type hotel (free breakfast)-Front desk and other employees were friendly and efficientCons:-One of the two elevators was broken most of our 3-day stay-Hallway carpet was badly in need of cleaning (not just vacuuming)-Housekeeping not very good.  When we arrived after checking in, there was a peanut and other debris visible on the floor. Also several articles of men's clothing left in one of the drawer.  Tried to call to have housekeeping come pick them up, but no one answered HK's phone number or the front desk phone.-Duvet on bed was frayed and worn.  Housekeeping did change it the next morning, but I shouldn't have had to ask for it.-No safe in roomMore</t>
   </si>
   <si>
+    <t>Lauren B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r359828120-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -535,6 +583,9 @@
     <t>Upon arrival, no one was at the check in desk. Thankfully, we didn't wait too long. The hotel room itself seemed clean enough; however, the bathroom was not. There was mold all along the top of the bathroom sink and the bathroom door itself needed to be cleaned and had sticky stuff on it. We did not use the bath tub but it looked dirty. Also, there was very little sound barrier. We heard people in the hallway all night long and heard people above us in the morning. Also, the dumpsters were emptied before 7am and this was NOISY. We went down for breakfast about 8:30 and I noticed it was chilly down there. The breakfast attendant had two doors propped open including a door to the outside. Thankfully I was over dressed because it was very cold.I would not stay here again.More</t>
   </si>
   <si>
+    <t>959dawnk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r357450196-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -562,6 +613,9 @@
     <t>For a girls weekend we used our points to stay at here. The property is ideally located, walking distance to the mall and tons of restaurants. It's a nice building, seems brand new. Staff was so helpful and friendly! One of the best holiday inn express's I've stayed in. If we are in the area again will stay again. More</t>
   </si>
   <si>
+    <t>John379</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r356956954-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -586,6 +640,9 @@
     <t>This hotel was everything a standard hotel should be.  The staff was friendly and helpful, the place was clean and well maintained.  Our room was the same the bathroom was clean and maintained well, the beds were comfortable, and everything seemed in good shape.Only complaints there didn't seem to be a recycling bin in the whole building, our room didn't have one, the fitness center didn't have, nor did the lobby have one.  We ended up gathering items and taking them with us so the items could be recycled.Second complaint was the fitness center, while the room was clean and well light, unlike some dungeon fitness areas in some hotels, there wasn't much in the way of equipment.  Two treadmills, one bike, one elliptical, and one machine.The breakfast buffet definity was not a complaint, they had a great variety of items much better than most hotels with a few breakfast.  They had everything you could ask for and the staff in the morning was great, very friendly. I would stay here on our next trip to the area.More</t>
   </si>
   <si>
+    <t>arunabh m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r353313274-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -610,6 +667,9 @@
     <t>Amazing hotel - peaceful - big - neat and very very friendly staff .....Here is what I wrote to the GM after checking out - Dear DarrenWanted to thank you for a lovely stay at the Holiday Inn FriscoI really liked the time I spent there. You have a great team and please do compliment them  all from my side – especially the following people who impressed me a lot –1.	Justin –  he was so helpful and friendly. He is a winner ! He has the capability of making 100 people happy at the same time.   He enjoys what he does  and is a great asset to your team.2.	Shante – for dropping me to work and taking care of my laundry – she impressed me a lot for her attitude3.	Wine - for being patient with me when I was changing my mind a bit4.	Tino – for assisting me early morning at BreakfastThanks again for your hospitality and kindness – you are a leader who leads from the front. I wish you all the best  Darren !More</t>
   </si>
   <si>
+    <t>TexasPadre</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r349804267-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -637,6 +697,9 @@
     <t>Location—Amid the many freeways, corporate offices, huge retail buildings [such as “IKEA” and “Nebraska”], and the comings-and-goings of professional/collegiate sports teams, sits this wholly-renovated, handsome hotel.Staff—Very professional, yet friendly and accommodating.Room—We were upgraded [due to IHG Reward points] into a top-floor, spacious, well-decorated room.Bed—Firm, comfortable, plus great pillows [of various firm/soft choices], and very clean.Bath—Spacious, clean, with excellent amenities.Work area—Excellent work desk and adjustable work chair.Wi-Fi—Very strong…and free!Price—Surprisingly reasonable, given the excellence of the room and staff.Other—Large pool, exercise room, game room, business room, meeting rooms, etcetera.Closed captioning on TV—OOPS…the only negative: when you press the remote control button to access CC, a box quickly pops up on screen which says NOT AVAILABLE; that’s a shame, as there are approximately 35,000,000 travelers in the US who need CC.Overall impression—Clean; comfortable; great free breakfast; superb staff…so the next time we’re in the Dallas area, we’ll be checking in again!More</t>
   </si>
   <si>
+    <t>Simuel B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r347088244-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -661,6 +724,9 @@
     <t>Being in the food/dining industry you tend to look for little nuances with service and quality of work at various places. This Holiday Inn Express has the best continental breakfast setup that I have ever seen. Ingrid (crew chief) was constantly moving throughout the dining room and breakfast bar to see what she needed to, to either clean or refill food. The attention to detail that Ingrid has for organization and quality of food being put out is top notch. The hotel rooms aren't too bad either. But more than anything I want to make sure everyone knows how great Ingrid and her continental set up were. More</t>
   </si>
   <si>
+    <t>kcchauffeur</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r341803383-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -688,6 +754,9 @@
     <t>I arrived to a very friendly front desk staff (Justin &amp; Nikki) they were accommodating and helpful.I arrive in my room and it is clean and spacious. Water pressure is amazing and pillows are soft and homelike.                             *****Catastrophic DISASTER AVERTED*****I was working on some company business in my room when I needed to print. I went to the courtesy computer where one was being used by a younger man who I am sure was just trying to figure life out. That left one other computer unused so I sat down and tried to use it. I stuck my flashdrive in the USB port and nothing......so I tried 13 different things (all the time hoping this young man would find himself) nothing would work. I talked to Nikki at the front desk and asked her to print this and she did. I got back to my room and realized that the forms I printed were not to spec so I did the "walk of shame" back to the front desk asked for a reprint and she did it. No problem!!!!!Thanks guys great job!!!!!More</t>
   </si>
   <si>
+    <t>Mur018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r341070137-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -712,6 +781,9 @@
     <t>This property is very nicely redone. The colors and décor are perfect. Everything is conveniently located. Fitness room with new equipment. Very nice game room open 24 hr.'s. We seen this room being used quite a bit. They also have a room that can be used for parties or whatnot. There was some people having a baby shower one evening. Beautiful breakfast room. Better quality fresh hot breakfast. Warm cinnamon rolls! There's a small cupboard room with drinks, snacks and such. Outdoor pool and hot tub looked like it would be fun in the summer. All the employees I encountered were very nice and helpful.  The rooms are very nice. Soft neutral colors. New furnishings. Comfy bed. Fridge. Microwave. Lots of channels on the flat screen T.V. The only thing I didn't like about the hotel was the air conditioner in the room. Although there fairly new, it was very loud. So loud that while watching T.V, I would have to turn the sound way up to hear it. And then when it shut down, the T.V. would be blaring loud. So all in all, with free wifi, free parking, free breakfast, great location, fairly new redo, its a top notch hotel for that class.  Its just really hard to deal with that loud air conditioner problem.More</t>
   </si>
   <si>
+    <t>AprilFlowers423</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r340893688-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -727,6 +799,9 @@
     <t>This place was probably very nice, but to me it felt like it had been "rode hard and put up wet". First, we arrived close to midnight...my husband is a top rewards member and was greeted warmly and told we had be unexpectedly upgraded. Wow! I am scared to think what room we would have had with no upgrade. Our room was just off the elevator on the 3rd floor that desperately needed vacuuming. Nothing spectacular...normal king sized room. No luggage rack. Moldy tub that I wasn't  positive had been cleaned. Someone's leftover pajamas hanging on the back on the bathroom door (which laundry promptly removed, but STILL!) Leaky tub faucet was annoying....mediocre for sure. Second, the location of the fitness center is less than desirable. Who wants to walk THROUGH the restaurant to work out? UGH. Third, the breakfast service was extremely lacking. On our second day, we arrived to breakfast to find them out of almost everything. No eggs, no sausage, no boiled eggs....sigh. The waitress was extremely apologetic and food came out soon enough, but poor planning for sure. Oh well, at least it was still warm.All in all, I am glad we had a weekend full of activities and did not expect the hotel for more than just a place to rest our heads. As rewards members who frequent Holiday Inn Expresses, this stop was simply a disappointment.More</t>
   </si>
   <si>
+    <t>MilindSaxena</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r340119608-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -754,6 +829,9 @@
     <t>Good hotel with big comfy rooms . Stayed twice on business trips for 5-6 nights each. Staff is friendly and attentive. Breakfast was good though with limited options. Hotel provides a free shuttle which makes it easy to explore nearby areas. Overall, a great option for business travelers in Frisco.More</t>
   </si>
   <si>
+    <t>aggieobr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r334623710-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -763,6 +841,9 @@
     <t>December 23, 2015</t>
   </si>
   <si>
+    <t>Phil H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r329998754-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -781,6 +862,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>RoyalCrownCola</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r329734703-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -799,6 +883,9 @@
     <t>The Holiday Inn Express in Frisco, Texas, is certainly an above average hotel for that hotel chain.  Entering the lobby from the main entrance, the reception desk is straight ahead.  I was greeted in an efficient, businesslike, manner.  Checking in was quick and easy and without any drama.  Just to the left of the lobby is the entrance to the very spacious breakfast area that doubles as a sitting area with access to computers and a large screen T.V.  The very spacious and well-equipped exercise room adjoins the breakfast area. Elevators, ATM machine, and side entrance are down the hallway to the right of the reception desk.  Food, drink, and traveller's items can be purchased at reception. The rooms are spacious and nicely decorated.  My room had all the usual amenities for Holiday Inn Express:  Microwave, flat screen TV, refrigerator, desk, easy chair, and iron and ironing board.  The bed was very comfy with nice high quality sheets and covers.  Everything in the room was certainly above standard for a Holiday Inn Express.  The hotel is well situated--about one mile away--to the Dr. Pepper Arena, baseball stadium, and other athletic/convention facilities.  It is an easy walk to the local shopping mall and restaurants.  I would say you definitely get your money's worth a this nice hotel property.More</t>
   </si>
   <si>
+    <t>BepaTexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r327270884-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -814,6 +901,9 @@
     <t>Our room at HIEx was clean and quiet. The AC worked well and our room was cool. These rooms have an iron and ironing board, fridge, microwave, and hair dryer. The hotel is ideally located within walking distance to the Dr. Pepper Arena, Frisco Convention Center and multiple shops and a mall. The only complaint I have is that the mattress on our king bed dipped in the middle resulting in a restless night's sleep.</t>
   </si>
   <si>
+    <t>Vilas_Kanyal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r318775709-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -832,6 +922,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>Steven W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r306740198-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -853,6 +946,9 @@
     <t>Picked this location for its proximity to the Frisco Rough Riders stadium.  The bed was comfortable.  Bathroom could use some updating.  The tiles on the floor were loose.  I had a problem with the room key not working and had to go back to the front desk three times in about 5 minutes.  Each time they were courteous and reset the key (don't know why I was having the problem).  Workout facility is basic, but served my purpose.  The breakfast was normal for a Holiday Inn Express, nothing fancy.  Parking lot was full when I came back from the game, so I think I got the last spot in the lot.More</t>
   </si>
   <si>
+    <t>April S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r297281616-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -871,6 +967,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>daylen51</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r296320733-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -886,6 +985,9 @@
     <t>Me and my fiancé came in after a ver exhausting day of softball (while 105 degrees outside) and when I can into check in, the front desk guy was absolutely amazing! We went to our room and took showers, then decided we needed another room so we could have a bed for a friend that had to stay, and Mike was more than helpful getting us set up for a awesome stay! Very much recommend this hotel!</t>
   </si>
   <si>
+    <t>nerainmakr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r295127859-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -901,6 +1003,9 @@
     <t>This hotel is in a great location, near the Stonebriar mall in Frisco.  I was recently in town for business and had a nice stay.  Nothing spectacular and only one issue (on the first day, housekeeping took my dirty towels but did not leave any clean ones).  The staff at the front desk was friendly.There were a lot of teenage athletes staying while I was there, and the hallways were noisy until around midnight.  While the noise was unwelcome, I was awake anyway so it didn't affect me too much.Note that the walls are thin and I could hear the TV in the adjacent room.</t>
   </si>
   <si>
+    <t>Mswolfie0515</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r293948726-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -925,6 +1030,9 @@
     <t>Should have known the stay at this hotel was not going to be up to par., At check-in on 07/22/2015 the Guy at the front desk appeared as through he slept in his shirt the night before and rolled out of bed  and came to work in the shirt he slept in.   And it went down hill from there... Housekeeping was horrible.  2nd day, floors were not vacuumed and nothing in the room was wiped down... Day 3, came back to room at 6 p.m., bed spread thrown on the bed and  pillows thrown on the floor and no clean towels.  Called front desk and was told that housekeeping should still be on the floor, but there were not.   The overall hotel needs a deep cleaning, hallway carpet filthy, elevators filthy, walls filthy...  I would not eat anything at the Breakfast buffet. Because if the public area are not maintained I would hate to see what is going on behind the scene..  The only good thing about this Hotel is Ms Rain the weekend Front Desk Clerk she was very helpful....More</t>
   </si>
   <si>
+    <t>glhil</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r292593834-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -938,6 +1046,9 @@
   </si>
   <si>
     <t>We stayed with a group for an athletic event. The hotel rooms were clean, hallways, not so much. The beds were very comfortable. They seemed to lack staff at all times. When we did call for towels etc. they were very nice and did bring things quickly. The front desk employees were overall very nice, although I needed to use scissors and a bottle opener and they had neither one! Breakfast wasn't bad and the lounge area was nice. The pool lacked any shade at all! and seemed a little neglected. The location is great, you can walk to many shopping areas and restaurants.</t>
+  </si>
+  <si>
+    <t>Alicia_rhae</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r290948380-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
@@ -968,6 +1079,9 @@
 While I was initially impressed with the modern look of the lobby, pool area (outdoor), and hotel exterior, that feeling quickly went away.  Stepping off the elevator and into the hallway of the third floor, carpet stains were everywhere.  Some were small, dark spots, but...I am a very loyal customer to the IHG brand, especially Holiday Inn and Holiday Inn Express hotels.  Additionally, I spend one long weekend each year in the Dallas area.  For the last three years my reservations have been with the Holiday Inn at McKinney-Fairview, which has never disappointed me.  During this stay, because I was attending a convention in Frisco with my son, I decided to spend my first night at the McKinney location and the three nights successive nights at the HIE in Frisco, which is less than a mile north of the convention center.  The difference in the two stays was like daylight and dark.As a platinum elite level rewards member with IHG, I am usually greeted with a welcome package that includes complimentary water bottles among other things depending on the hotel.  Sometimes I am offered a choice between water/snacks and extra rewards points.  It's great customer service to start a stay.  At this location, check in was flawless but there was no welcome package.  Not a big deal, except it might have foreshadowed the lack of customer service and attention to detail that was the theme of the stay.  While I was initially impressed with the modern look of the lobby, pool area (outdoor), and hotel exterior, that feeling quickly went away.  Stepping off the elevator and into the hallway of the third floor, carpet stains were everywhere.  Some were small, dark spots, but there were some large red spots that made you wonder what was to blame.  Still, that was the hallway, and accidents do happen (though there are carpet cleaners for such things).  I immediately had trouble entering the room due to room key issues.  One key finally worked.  As I normally do when entering a hotel room, I first turned the a/c down to get the room cool for the night and noticed the vents of the a/c spotted with mold.  This was not just one tiny spot either.  It was very prevalent.  The bathroom was very dark (poor lighting probably due to the type of "green" bulbs used in the few lights), the tiles in front of the toilet seemed loose, and there were dark spots of something in two corners of the tub.  I was willing to overlook these things, and we were just dropping off our bags to rush back to the convention center.  We did not return to our room until around 2 AM due to convention activities, so we were exhausted, had few lights on, and went to bed to get up by 6 AM the next day.  The first morning of our stay had multiple issues.  The first thing we noticed was that when taking a shower, the water ran partly from the faucet and partly from the shower, making water pressure an issue.  I pulled on the knob as much as I could to get the water to go all the way to the shower head, to no avail.  It was faulty and in more than one way.  At the end of our showers, no amount of turning, pushing the shower knob down, etc., would result in the water turning completely off in the tub.  There was at minimal a constant drip,which was really more like a small stream always running.  Still, we were not planning to be in the room that much and the beds seemed adequate so we overlooked this issue.  I was impressed with the look and seating options in the breakfast area.  I was not impressed with the food, however.  We arrived at breakfast at 7 AM, so it should have been fresh.  Instead, the biscuits were hard and very dry.  My son complained, and he never complains about any type of biscuit!  I picked out the greenest banana I could find and found it liquefied from bruising at one end when I opened it.  At this point, I had been very patient with all the issues we had encountered.  We left for our convention and returned around 3:30 pm when again we had trouble getting in the side door and our room because of room key issues.  Upon entering the room, I noticed that housekeeping had not serviced our room.  I called the front desk just to ask what time I could expect housekeeping because we wanted to nap after only 4 hours of sleep.  The front desk acted shocked that housekeeping had not been to our room and insured me that they would be right up.  I waited about an hour to no avail.  That is when I decided to visit the front desk.  I patiently waited for the attendant to help the people checking in ahead of me, but after a few minutes she stopped helping them to ask what she could help me with.  I explained that I had called about housekeeping and had still not been serviced and was wanting to nap.  All I wanted was fresh towels and to be able to have my trash emptied.  I was then told that there were no fresh towels.  At 4:30 pm at a Holiday Inn Express, when check-in time is 3:00 pm, you're telling me there are NO clean towels in the entire hotel??  So, I asked if I could just set the trash in the hall and the dirty towels in the hall, put the do not disturb sign out, and get towels later.  I thought we reached an agreement so then I told her my keys were faulty.  She turned and left me mid-sentence and then a man asked me what the problem was and I had to go back through the entire housekeeping story.  He also took my keys to reset them.  With neither person did I feel like a valued guest nor did either apologize for the issues or even ask if there were additional issues.  I was rushed off, told that housekeeping would put clean towels in a bag outside my door when they were ready.  I went back to my room, and one key was still faulty!  After an hour's nap, I woke up to find not one but two papers under my door that said housekeeping had attempted to service my room but found my do not disturb sign on the door.  They did not attempt from 7 AM-4PM and then suddenly made two attempts from 4:30-5:30?  I doubt it.  As I was getting ready to go back to the convention, I noticed the comforter had two reddish-brown stains on it.  Gross!  I had slept with that bedding the previous night.  It was then that I decided to cancel my third night's reservation.  Still, that was not the end of the problems.  The laundry detergent vending machine was completely empty as well, and the bathroom toilet began non-stop flushing.  I'm sure more things could have gone wrong, but it seemed like we had more than our fair share of misfortune for this to be just a strange turn of events.  Because of the poor customer care I received at the front desk already, I did not revisit the front desk.  I did call to request my reservation be changed and my rewards points be refunded for the canceled night.  At that time I spoke with a man at the desk, and he only said I would have to contact IHG about my points being refunded.  He did not offer to move me to another room.  He did not inquire about my canceled night.  He did nothing except change my reservation in the computer.  We spent that last night (with me NOT using the gross comforter) and checked out early the next morning.  Upon checkout, I did encounter the desk attendant, Wine, at the front desk who treated me as a customer should be treated.  She asked if everything was ok, which led into me describing the issues we had had including showing her pictures of some of the problems.  Even prior to the photos, Wine was very apologetic and tried to offer to change rooms.  At that point, I was done with this hotel.  I told her politely that there was nothing that could be done to make me stay the extra night and that I would never return to that location again.  Even after that, she offered me extra rewards points for my trouble and assured me that my rewards points used to the canceled night would be returned to my account.  She could give lessons to the attendants working the previous evening.  I hope that this location works to correct these issues, especially the routine maintenance and cleaning problems.  More so, I hope that my experiences here were not the norm.  Every customer deserves to be treated with the same level of quality customer service.  When we return to the area next summer, we will NOT be staying at this location.  We will either change hotel brands or stay at the Holiday Inn at McKinney-Fairview and drive each morning.  I have not lost faith in the IHG brand, as they have been quick to respond and try to accommodate for such poor customer care at the Frisco HIE.  Just be warned that if you choose to stay at this hotel, you are gambling.   There are other reviews that point to similar issues.PS  The free WiFi was worthless.  I maxed out my data on my phone during my stay as a result.More</t>
   </si>
   <si>
+    <t>natalie m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r289819566-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -983,6 +1097,9 @@
     <t>I had a Dr. visit at Baylor. I did not know until I arrived that they had a shuttle. It was great as I did not know the area. The staff was great, the breakfast items were hot and tasty. We will return when we are shopping in the area. So many places to go, shop, eat. The hotel was very clean. The staff was very helpful.Thanks Holiday Inn.</t>
   </si>
   <si>
+    <t>Neeraj V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r287847678-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1001,6 +1118,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>evonda w</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r280780307-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1025,6 +1145,9 @@
     <t>Stain on floor that I hope was from a red drink, only was given 2 wash cloths for a room that sleeps 4. I asked for additional wash cloths and was given just 2 more. Carpets in room and hallway needed to be vacuumed. Room was dusty and a/c really did not cool the room. More</t>
   </si>
   <si>
+    <t>BluHiWay66</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r280636417-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1040,6 +1163,9 @@
     <t>Staying in this hotel for a wedding was a great decision.  Very good location.  Wedding party rooms altogether on floor separate from athletic groups.  Glad for Helpful Mike at front desk for various requests and his suggestion about the shuttle. A map of area (we hiked over to Stonebriar Mall area) would be very helpful. Ice cold water and great coffee in Lobby - both life saving!  Repair to commode lever was prompt and appreciated. Breakfast for low carb person was great. Having a home away from home for several days attending the wedding events helped us enjoy the special days more.More</t>
   </si>
   <si>
+    <t>Jonathan W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r279816786-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1058,6 +1184,9 @@
     <t>My stay at Holiday Inn Express Frisco started off good. I was greeted by the front desk in a friendly manner and the gentleman working the desk was eager to give me help with directions and with what was in the local area. From there my stay was less than pleasant to say the least. Problem one was my door would not lock. I was coming back from being out with the family and my kids went to the door and to my surprise it opened without a key. I was in a hurry to leave and it took a while for someone to show up to fix the door. Would like to say this was my only complaint in  a 2 day stay, but it was not. My next problem was the pool. It was filthy and the filter was not even running. There were dead bugs all over the pool and it looked like it has not been vacuumed in at least 2 weeks . This is a huge sanitation hazard. I went to the front desk to let them know the filter was not on and she responded that maintenance was not in. All I asked was for the filter be turned on because my son insisted on swimming. This should not require maintenance to do. Additionally the pool area was not well kept. There were not any cushions on the plastic seating they had outside and...My stay at Holiday Inn Express Frisco started off good. I was greeted by the front desk in a friendly manner and the gentleman working the desk was eager to give me help with directions and with what was in the local area. From there my stay was less than pleasant to say the least. Problem one was my door would not lock. I was coming back from being out with the family and my kids went to the door and to my surprise it opened without a key. I was in a hurry to leave and it took a while for someone to show up to fix the door. Would like to say this was my only complaint in  a 2 day stay, but it was not. My next problem was the pool. It was filthy and the filter was not even running. There were dead bugs all over the pool and it looked like it has not been vacuumed in at least 2 weeks . This is a huge sanitation hazard. I went to the front desk to let them know the filter was not on and she responded that maintenance was not in. All I asked was for the filter be turned on because my son insisted on swimming. This should not require maintenance to do. Additionally the pool area was not well kept. There were not any cushions on the plastic seating they had outside and clearly they had cushions because the buttons for them to attach to. My final complaint in a 2 day stay was that my door broke again. This time the battery died and I was not able to get in. They had a machine that was able to give it enough power to let me in until I left in the morning. None of these I complained verbally about to the staff, however I guess the manager was there when the battery died and she offered me 2000 reward points for the trouble with the door. I was actually quite surprised and was actually going to give 2 or 3 stars until I checked my account. There were only 300 points not the 2000 offered. If you want to to make up to your guests that is great, BUT you should fulfill Your promise. That is unacceptable.More</t>
   </si>
   <si>
+    <t>baldwarrior46</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r277090732-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1085,6 +1214,9 @@
     <t>Arrived early, front desk was very accomidating, arrived in my room and it was clean spotless, easy access onto the wifi and the staff always greated me on my departure and return to the Inn, it was refreshing. room is modern, the inn was full of families and i didnt hear a single noise at all. quick checkout process as well.More</t>
   </si>
   <si>
+    <t>williamc1971</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r273358940-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1110,6 +1242,9 @@
   </si>
   <si>
     <t>I had the chance to stay a couple of nights at the Holiday Inn Express in Frisco,Tx and i was impress with the quality of the hotel, infrastructure and staff. All very professional and very customer-oriented. Also, the location was perfect, close to a major mall and lots of restaurants options. Will definitely comeback on my next trip.More</t>
+  </si>
+  <si>
+    <t>Roque</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r268648528-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
@@ -1151,6 +1286,9 @@
 For a $160USD I would expect better for the hotel, it seems to me that the staff does whatever they can...After been in several Holiday Inns, this was not what I expected.Our experience was not so good, the staff was excellent and they did whatever they can  but we had the following issues, maybe the owners need to put more attention to the below:a)	NOISE. It seems that the carpet was installed over a wood floor, every time that the person in the upstairs room walked we were able to hear wood popping as it was on our room. In addition to that, the isolation also was bad, I was able to listen to the conference call of my neighbor room. The staff offered the only room available but since it was a different kind room we did not want to move.b)	Whenever we left the room around 11:00am, the room was not done and when we asked for the service there was no housekeeping service (at 4:00pm). I would expect that some housekeeping service will be available in the afternoon or at least if I am leaving the room before 12:00pm (check out time), someone will be available to make to room.  c)	My Blanket was broken, not  critical but I am on a Holiday Inn and would not expect this.d) Food storage. In one of our breakfast we found that milk was soggyFor a $160USD I would expect better for the hotel, it seems to me that the staff does whatever they can with what they have.More</t>
   </si>
   <si>
+    <t>davefromArizona</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r257830730-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1175,6 +1313,9 @@
     <t>This is a nice new hotel--and the staff showed that they are good at dealing with problems.  We arrived to visit family and just had time to drop our luggage in the room before heading to dinner.  Got back to the room late and found that the sink was disconnected and had fallen down into the cabinet (we heard later that another room had the same problem). Since the hotel was sold out, a couple of staff guys tried hard to make a temporary fix until it could be attended to the next day, but with no success.  They somehow found us another room (not exactly what we had reserved, but it worked) and we moved with our stuff.  Inconvenient, but the staff did their best and that's what had to happen.More</t>
   </si>
   <si>
+    <t>Lost TN L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r254277981-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1199,6 +1340,9 @@
     <t>We came to Frisco for a gymnastics competition, but we did not know we were getting such an excellent hotel and staff.  From Ahadd to Sergio coming by our competition to the manager Donna always greeting us with a smile and today she cleaned off our breakfast plates.  This hotel is truly amazing a must visit if your coming to Frisco.More</t>
   </si>
   <si>
+    <t>Lcj21180</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r253521312-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1223,6 +1367,9 @@
     <t>My son and myself ended up at this hotel as a result of staying to another property prior to us checking in here because of problems we encountered. I must say from check on to check out the staff at this hotel was so nice that whenever I visit Texas again I will defiantly be booking my room at this location!!!!!! Great clean rooms and my 10 year old absolutely loved the game room!!!!! More</t>
   </si>
   <si>
+    <t>HOLLY93A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r252514309-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1250,6 +1397,9 @@
     <t>Breakfast had a large variety to choose from. Rooms were not large but clean.  Beds were comfortable. Front desk was very accommodating. Six co-workers stayed here for a weekend class and all said they would stay again.More</t>
   </si>
   <si>
+    <t>Brad C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r252472678-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1265,6 +1415,9 @@
     <t>This hotel is located in a good location near the North Dallas Tollway and Stonebriar Mall.  We were welcomed warmly and the person at the desk was very informative.  We had read that this could be an issue, but he was very nice.  While I parked the car he assisted my wife with the luggage cart and asked if we needed anything else.  I will note that others that worked the desk later were friendly, but not to the extent our original person was.  We had a nice room on the 5th floor, but the design of the building made getting into the room difficult.  There was a HVAC vent at the end of the hall and you could barely squeeze the luggage cart by to get it into the room.  The room was clean and well kept other than a slight separation at the ceiling of the wall to the bathroom.  One thing I thought was interesting was the breakfast area was also the business area, you walked through it to get to the workout equipment and to the pool.  For convenience it was nice, but kind of different accessing those areas from places you eat.  We would definitely stay again.More</t>
   </si>
   <si>
+    <t>Darrylswife0701</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r247296686-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1283,6 +1436,9 @@
     <t>The staff was incredibly warm and inviting. I sent my 18 year-old for his first trip alone and he said the staff was helpful, kind, and accommodating. When I called the hotel the staff was so nice. My son said the room was clean and housekeeping had taken excellent care of the room. More</t>
   </si>
   <si>
+    <t>Flymetohammer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r242850966-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1310,6 +1466,9 @@
     <t>The listing on the IHG web site claims that this property is "fully renovated", but they must have had Larry, Moe and Curly do the work because Shemp would have been much more conscientious.  The carpet and furnishings look new enough, but this week (I've stayed here three times in the last six weeks or so), the toilet is at about a 60 degree angle to the wall rather than the expected sort of perpendicular arrangement that is generally accepted as standard.  Apparently the same plumber installed the faucet because it is similarly misaligned.  Every room has had some cracked or peeling drywall and this room has one lone bare drywall screw on the wall next to the bed.  All in all, as clean as you'd expect for a better hotel (although the vacuum cleaner seemed to somehow miss a pair of earrings left on the floor by a prior tenant...) and the staff is very courteous and helpful.  There's another major chain right across the street I've stayed at and if they hadn't been full this week I'd be back over there.More</t>
   </si>
   <si>
+    <t>C-ingNewPlaces</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r242186384-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1328,6 +1487,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>Mike B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r235946845-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1355,6 +1517,9 @@
     <t>This is your standard new holiday inn express. Everything is new and clean. We were given a room that was smoked in when we checked in at midnight (tired, hassle). Went back to the front desk and no one was around, no bell. Called the front desk from my cellphone, no answer. Waited 15 minutes for someone to show up. Was given a new room. This one smelled slightly of mold, figured that was just how Texas smelled (heat + humidity). Besides this encounter with the staff, they were excellent. Don't go here without a car, nothing close by. We were there to run a tough mudder and they didn't complain about the shower being a bit messy when we left, so thanks. Overall, safe, clean place to sleep.More</t>
   </si>
   <si>
+    <t>WilkS71</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r230876402-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1382,6 +1547,9 @@
     <t>Very clean, pleasant staff, decent and quick breakfast.  No foodservice beyond breakfast, and no restaurants within immediate walking distance, however there are some delivery options.  Workout facility &amp; pool, both very clean and inviting.  Would definitely stay again, but recommend having some means of transportation, although shuttle bus does run from 8a-8p daily.More</t>
   </si>
   <si>
+    <t>leobor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r229529023-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1397,6 +1565,9 @@
     <t>Newly opened hotel - all is still fresh and modern. All you can expect from the hotel of this level but a bit better. They even have HBO! While I did not have chance to use some facilities such as pool (came to work in the town), they look good and inviting. The staff is always ready to help. Would stay again if come to the area.</t>
   </si>
   <si>
+    <t>kateandevesmom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r229342713-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1415,6 +1586,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>TXgrl55</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r228363687-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1439,6 +1613,9 @@
     <t>This HIE property is typical; price was in line for the area, and hotel is fairly new.  Our room was comfortable.  The A/C unit was a bit noisy cycling off and on.  Check in was handled quickly and the front desk person was friendly and gave directions to the baseball field.  We noticed one of the two elevators was out of order when we went to our room.  Then when we went downstairs there was an employee that was in the elevator pushing the door open/closed.  Late in the evening when we returned to the hotel after a sweltering, humid, hot baseball game both elevators were out of commission.  Was not exactly pleased to walk five flights of stairs although they did have an elevator tech working on it.  Apparently some brats, oops - I meant children - caused the elevators to lock up because of pushing all the buttons together and then they damaged the door.  Other than that, stay was a typical experience with a newer HIE property.More</t>
   </si>
   <si>
+    <t>Sara L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r228323294-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1454,6 +1631,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Matt D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r227988113-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1469,6 +1649,9 @@
     <t>I do a lot of traveling with my children going to weekend sporting events, but let me tell you I have never been so impressed by a staff as much as I was by Donna and her staff.  From the moment we arrived we felt welcome until the time we checked out.  If you are ever in this area you MUST stay at this hotel.  We are planning a family vacation back to the area just to stay at this hotel again, it was that amazing.</t>
   </si>
   <si>
+    <t>rjmcintosh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r219043380-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1487,6 +1670,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>3c1dkass</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r215134370-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1509,6 +1695,9 @@
   </si>
   <si>
     <t>It was a great location, but we were disappointed in many things during our stay. We did not have the best experience.  The hotel was slow to clean the rooms.  The staff was in the way when trying to get around the hotel, Several times you had to wait for the next elevator because the staff had it full or they were blocking the hallway with their carts. There were roaches on the bottom floor. The wifi was unreliable the whole stay.   The air conditioning was not working properly.  The pool was small and had a big fountain next to it that was in the way.  Kids kept thinking it was a baby pool.  Take out the fountain and add some chairs in the shade would help a lot outside.  I hope they improve their hotel because it is in a great location for Frisco, but not worth the hassle.More</t>
+  </si>
+  <si>
+    <t>Trevor C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r214857514-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
@@ -1531,6 +1720,9 @@
 My review would have reflected an overall rating of average, but because of the service provided by the driver of the van, I was compelled to elevate the overall rating to "Very Good".  The van driver's name is Miguel.  This gentleman was extremely friendly, courteous, and always smiling. Looking at his smile always put a smile on my face.  I looked forward to riding in the van with him each morning.  In fact, I had a choice of several rides that I could have taken with colleagues to the Collin College campus, but once I had that first pleasurable experience of riding with Miguel, I chose to wait to ride with him.  I'm very big on customer service, and it's an understatement to say that Miguel knows more than a little something about customer service.  On the final day of my stay at the hotel, I needed to store a bag until the arrival of my transportation to the airport, and Miguel was quick to assist me with that request.  On this same day, when I needed a ride back to the hotel, he was very  quick to arrive for the pickup.  I mentioned to him, had I known he would be able to come so quick, I would have remained where I was for another hour.  I didn't anticipate such quick service.  As usual, the service was very customer service oriented.  It's because of Miguel's 5-star level...Trevor C.My review would have reflected an overall rating of average, but because of the service provided by the driver of the van, I was compelled to elevate the overall rating to "Very Good".  The van driver's name is Miguel.  This gentleman was extremely friendly, courteous, and always smiling. Looking at his smile always put a smile on my face.  I looked forward to riding in the van with him each morning.  In fact, I had a choice of several rides that I could have taken with colleagues to the Collin College campus, but once I had that first pleasurable experience of riding with Miguel, I chose to wait to ride with him.  I'm very big on customer service, and it's an understatement to say that Miguel knows more than a little something about customer service.  On the final day of my stay at the hotel, I needed to store a bag until the arrival of my transportation to the airport, and Miguel was quick to assist me with that request.  On this same day, when I needed a ride back to the hotel, he was very  quick to arrive for the pickup.  I mentioned to him, had I known he would be able to come so quick, I would have remained where I was for another hour.  I didn't anticipate such quick service.  As usual, the service was very customer service oriented.  It's because of Miguel's 5-star level of customer service that I am compelled to write this review.  Thank you Miguel for adding tremendously to the pleasure of my stay at the Holiday Inn Express!More</t>
   </si>
   <si>
+    <t>jwessma</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r214767908-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1549,6 +1741,9 @@
     <t>I stayed here on a business trip for a week. The hotel room was very clean and the decor was pretty modern. There was a pool but I never used it, and the breakfast was pretty standard stuff. One thing that bothered me a lot was the key system they use. I had put the key card in my pocket near my wallet, and  some how that deactivates they key?! I had to go to the front desk a few times to have them reactivate the room key, not a huge deal but very inconvienent, as I didnt get back to the room after work until sometimes after 11pm. If you are staying in the frisco area though, for the price and location it isnt a bad deal.More</t>
   </si>
   <si>
+    <t>Jule J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r212970133-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1567,6 +1762,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Sachin1375</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r212208198-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1585,6 +1783,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Lennie N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r211693685-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1600,6 +1801,9 @@
     <t>My family selected this hotel only because it was located near our destination.  However, when we arrived, we found that there is a mall within walking distance!  The hotel is beautifully maintained and we were treated with great kindness.  The front desk staff was very knowledgable about the area and gave us several pointers on how to get around the area.  We plan on staying here again soon!</t>
   </si>
   <si>
+    <t>EMSimms</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r211575385-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1618,6 +1822,9 @@
     <t>I'm in hotels rooms three sometimes for nights a week. I travel to the Frisco, TX area rather often for work. This weekend my sisters and I were unable to stay at my usual hotel. So my sister booked the holiday inn express for us. Our stay was a lesson in customer service. The front desk member Dangelo fantastic. He seemed to be just as excited about the Jimmy Buffet concert as we were. He was exuberant and not just with us but with everyone. It appeared as if he were friends with every guest at the hotel.  At checkout we discovered that his first day was the day my sisters and I checked in. That made the experience even more impressive to us. I would have never guessed that by his actions, his generosity and the fashion in which he articulated himself.  The way he handled all the questions and demands of a concert happy drunk crowd was almost a lesson in of itself. He made our stay as they say A MEMORABLE EXPERIENCE and not just another stay at a hotel. We will definitely be coming back. Besides that everything else about our stay was great also. Very good staff, very nice hotel. Whatever you do make sure you keep him at your hotel for as long as you can. He embodies what EXCEPTIONAL customer service is all about. Kindest Regards, Elana More</t>
   </si>
   <si>
+    <t>Richard B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r208860867-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1633,6 +1840,9 @@
     <t>Driving from Utah to Denver we turned up at the Holiday Inn, Frisco and got a room.  Front Desk could not have been more helpful and welcoming.  The hotel was up to the high standard expected of Holiday Inn.  The Sports Bar/Restaurant was quiet but the food was good and the beer great.</t>
   </si>
   <si>
+    <t>gwenssmith</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r207273621-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1657,6 +1867,9 @@
     <t>Room 119 is next to an exit door on side of the hotel. When it would close, it would make a loud noise. This went on all night. Water was not hot. It was warm, but I like a hot shower. The sink stopper would not open to drain.More</t>
   </si>
   <si>
+    <t>Kelly3031</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r203481668-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1675,6 +1888,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Kelley M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r202702187-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1690,6 +1906,9 @@
     <t xml:space="preserve">Clean comfortable decent internet. Nice staff but breakfast a bit boring. Hotel hallways were about 80 degrees making cooling off of a room a challenge given units are exhausted out the window base. Anything I brought up was immediately addressed. </t>
   </si>
   <si>
+    <t>Brent K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r201337572-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1714,6 +1933,9 @@
     <t>My stay here was not good this time around.  The room was hot when we got there and was hoping that the A/C would have cooled it down.  We left and came back about 7 hours later and the room was cool.  The wind was blowing hard enough that you could hear and feel it coming through the window seal.  The water took a long time to get hot and the pressure was very weak. We couldn't sleep due to the noise and being uncomfortable.More</t>
   </si>
   <si>
+    <t>Hansboomer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r194163981-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1741,6 +1963,9 @@
     <t>Last year I penned a very poor, frustrating review of this property.  I wanted to share an update as I believe in 2nd chances and I decided to stay here again on a recent trip to Frisco.  I learned a valuable lesson.....things certainly change and check before you book if you had a bad experience the first time around.  Gone were the hoards of young ball players;  gone were the smells of food left out in the hallway; gone were the yells and loud talking that keeps you up until the wee hours........get the point?The property was extremely good.  Clean, Quiet.  Professional.  It was a great stay with a great room and warm staff.  I certainly do recommend this IHG group hotel when in Frisco.  Just check first to see if there is a big ball tourney planned during your visit!More</t>
   </si>
   <si>
+    <t>Jessica S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r186636988-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1768,6 +1993,9 @@
     <t>Hotel was very clean and nice and in a great area. Comfortable bed, great breakfast, very nice. I do not know if you can get much better for the great rate! I booked this hotel because of the rate and was very glad I did. I will stay again for sure!More</t>
   </si>
   <si>
+    <t>Cody S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r166859702-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1786,6 +2014,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>ggalbraith</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r166605754-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1810,6 +2041,9 @@
     <t>Stayed here for two nights on July 3 &amp; 4th. Our room was nice, but hated their blue lights in the room, made it feel very below average. The staff was not friendly at all, as no one would even look you in the eye or say hello. The elevators were filthy as one other reviewer said. The pool area was not clean and it all just appeared like they had no staff to clean up, especially the cigarette butts from the day before. The décor was new and modern, but all in all not a very pleasant experience. We moved across the street to the Homewood Suites and felt like we had just walked into a wonderful hotel for a mere $10 more. I would not stay there again.More</t>
   </si>
   <si>
+    <t>kmbama</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r166564177-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1825,6 +2059,9 @@
     <t>Very nice place to stay. Staff was friendly. We booked late but still were able to get the room we wanted and very reasonable. Location is excellent. It was a very pleasant stay and we will stay there again.</t>
   </si>
   <si>
+    <t>Moved2Texas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r164978983-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1870,6 +2107,9 @@
     <t>We recently stayed at the Frisco Holiday Inn Express for a graduation weekend.  The location was ideal for the graduation festivities but the hotel itself needs some work.  The staff was fine and helpful but the carpets were filthy especially in the elevators and the two rooms we occupied had issues with the shower head and the closet door.  I attempted to adjust the direction of the shower head on the first morning and was surprised to have the whole fixture come off in my hand leaving a pipe spewing water from the wall!  The other room had a glass closet door that was hung in such a way that my 17 month old grandson was able to bang on it and have it fall on top of him!  The beds were comfortable and the A/C was great but the overall impression was this hotel suffered from high traffic and needed some TLC.More</t>
   </si>
   <si>
+    <t>Brenda W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r162322727-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1888,6 +2128,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>PhoenisSunDog</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r159336854-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1906,6 +2149,9 @@
     <t>I stay at a lot of hotels in a year and I prefer HIE just for their consistent product. This HIE is a step above the rest. The pool, work out area, business center, and TV watching room (this is something I have not seen before) are a step above other HIEs. The rooms were very clean and new. I love it when all the tabble lamps have plugs for my phone or laptop. I don't have to search behind the bed or night stand. Staff was friendly. Breakfast was usual fare, but area was very nicely done.Only complaints1. lighting in bathrooms could be better. They come on dim and take a while to come all the way bright.2. What is it with windows in hotels and the wind? Why can't they get them sealed? It was windy and the window made noise.I would definitely come back. One of the better hotels in the areaMore</t>
   </si>
   <si>
+    <t>Amit_Sengupta</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r157346698-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1924,6 +2170,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>ChristinaN809</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r156377457-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1942,6 +2191,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>Philip L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r154524095-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1957,6 +2209,9 @@
     <t>Travel with my daughters soccer team.  Hotel went out of their way to accomodate the players and families.  Hotel was clean and maintained exceptionally.  Staff was courteous and responsive.  General Manager heavily involved in ensuring the guest were all taken care of, they even opened the Breakfast Bar early do to early games.  Great location to shops and restaurants and to the soccer fields.</t>
   </si>
   <si>
+    <t>Jan B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r153472728-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1975,6 +2230,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>KeyserSoze53</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r153099431-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -1990,6 +2248,9 @@
     <t>Hotel was very new. I stayed there on business and for a soccer tourney.  The beds were VERY comfortable, so getting a good nights sleep was not a problem.  Very easy access to the interstates and tollways.  Tons of places to eat and shop with blocks of the hotel.   Fridge, microwave, large flat screen, and free wireless were great.  Only a 35 minute drive to DFW.  Staff very freindly and professional.  Only complaint was that the breakfast was only average.  I was glad that I choose this hotel, and would reccomend to anyone staying in the area.</t>
   </si>
   <si>
+    <t>Gottarun4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r150733211-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -2008,6 +2269,9 @@
     <t>My daughter and I stayed at the Holiday Inn Express in Frisco on December 30th and 31st because we were running in a race. Not having stayed here before I was pleasantly surprised when I walked in the door. The lobby was beautiful! The front desk agent greeted us with a warm smile and cheerful hello. When we got to our room I was even more surprised. The room was spacious and clean! In face the entire hotel was immaculately clean!! The free breakfast had plenty of choices for my picky eater daughter! I normally stay with a different brand that shall remain nameless when traveling to Frisco but I have found my new home away from home for all future trips!!! Holiday Inn Express in Frisco Texas should be everyone's first choice! More</t>
   </si>
   <si>
+    <t>Mary W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r150433592-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
   </si>
   <si>
@@ -2024,6 +2288,9 @@
   </si>
   <si>
     <t>January 2013</t>
+  </si>
+  <si>
+    <t>Chad43335</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55870-d673114-r149220873-Holiday_Inn_Express_Frisco-Frisco_Texas.html</t>
@@ -2543,43 +2810,47 @@
       <c r="A2" t="n">
         <v>56401</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>156177</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -2597,50 +2868,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>56401</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>156178</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>4</v>
@@ -2658,56 +2933,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>56401</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>156179</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2719,56 +2998,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>56401</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>9578</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -2786,56 +3069,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>56401</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>156180</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2851,56 +3138,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>56401</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>156181</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>88</v>
       </c>
-      <c r="J7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>83</v>
-      </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2912,56 +3203,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="X7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>56401</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>156182</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -2977,56 +3272,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="X8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>56401</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>156183</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3038,56 +3337,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="X9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>56401</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>84442</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="K10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="L10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3099,56 +3402,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="X10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="Y10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>56401</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>156184</v>
+      </c>
+      <c r="C11" t="s">
+        <v>124</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3162,50 +3469,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>56401</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>156185</v>
+      </c>
+      <c r="C12" t="s">
+        <v>130</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="J12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="K12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3217,56 +3528,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="X12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="Y12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>56401</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>156186</v>
+      </c>
+      <c r="C13" t="s">
+        <v>140</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="J13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="K13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="L13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -3282,56 +3597,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="X13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="Y13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>56401</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>4079</v>
+      </c>
+      <c r="C14" t="s">
+        <v>149</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="J14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="K14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="L14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3349,56 +3668,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="X14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="Y14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>56401</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>156187</v>
+      </c>
+      <c r="C15" t="s">
+        <v>159</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="J15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="K15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3410,56 +3733,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="X15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="Y15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>56401</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>156188</v>
+      </c>
+      <c r="C16" t="s">
+        <v>168</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="J16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="K16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="O16" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -3477,56 +3804,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="X16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="Y16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>56401</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>7166</v>
+      </c>
+      <c r="C17" t="s">
+        <v>177</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="J17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="K17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="L17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3538,56 +3869,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="X17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="Y17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>56401</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>156189</v>
+      </c>
+      <c r="C18" t="s">
+        <v>187</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="J18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="K18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="L18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="O18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3599,56 +3934,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="X18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="Y18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>56401</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>156190</v>
+      </c>
+      <c r="C19" t="s">
+        <v>197</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="J19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="K19" t="s">
+        <v>201</v>
+      </c>
+      <c r="L19" t="s">
+        <v>202</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
         <v>183</v>
       </c>
-      <c r="L19" t="s">
-        <v>184</v>
-      </c>
-      <c r="M19" t="n">
-        <v>4</v>
-      </c>
-      <c r="N19" t="s">
-        <v>167</v>
-      </c>
       <c r="O19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -3666,56 +4005,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="X19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="Y19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>56401</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>156191</v>
+      </c>
+      <c r="C20" t="s">
+        <v>206</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="J20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="K20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="L20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3731,56 +4074,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="X20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="Y20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>56401</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>156192</v>
+      </c>
+      <c r="C21" t="s">
+        <v>215</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="J21" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="K21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="O21" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -3798,56 +4145,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="X21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="Y21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>56401</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>156193</v>
+      </c>
+      <c r="C22" t="s">
+        <v>225</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="J22" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="K22" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="L22" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="O22" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3859,56 +4210,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="X22" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="Y22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>56401</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>156194</v>
+      </c>
+      <c r="C23" t="s">
+        <v>234</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="J23" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="K23" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="L23" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -3926,56 +4281,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="X23" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="Y23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>56401</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>123920</v>
+      </c>
+      <c r="C24" t="s">
+        <v>244</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="J24" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="K24" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="L24" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="O24" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -3993,56 +4352,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="X24" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="Y24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>56401</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>156195</v>
+      </c>
+      <c r="C25" t="s">
+        <v>253</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="J25" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="K25" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="L25" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="O25" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -4060,56 +4423,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="X25" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="Y25" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>56401</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>156196</v>
+      </c>
+      <c r="C26" t="s">
+        <v>259</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="J26" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="K26" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="L26" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -4127,41 +4494,45 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="X26" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="Y26" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>56401</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>156197</v>
+      </c>
+      <c r="C27" t="s">
+        <v>269</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="J27" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="K27" t="s"/>
       <c r="L27" t="s"/>
@@ -4177,51 +4548,52 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
-      <c r="Y27" t="s"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>56401</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>19684</v>
+      </c>
+      <c r="C28" t="s">
+        <v>273</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="J28" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="K28" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="L28" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="O28" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4241,50 +4613,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>56401</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>156198</v>
+      </c>
+      <c r="C29" t="s">
+        <v>280</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="J29" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="K29" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="L29" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -4304,50 +4680,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>56401</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>156199</v>
+      </c>
+      <c r="C30" t="s">
+        <v>287</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="J30" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="K30" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="L30" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4361,50 +4741,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>56401</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>156200</v>
+      </c>
+      <c r="C31" t="s">
+        <v>293</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="J31" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="K31" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="L31" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4422,50 +4806,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>56401</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>5223</v>
+      </c>
+      <c r="C32" t="s">
+        <v>300</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="J32" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="K32" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="L32" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="O32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -4483,50 +4871,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>56401</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>10170</v>
+      </c>
+      <c r="C33" t="s">
+        <v>308</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="J33" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="K33" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="L33" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="O33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -4546,50 +4938,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>56401</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>156201</v>
+      </c>
+      <c r="C34" t="s">
+        <v>315</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="J34" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="K34" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="L34" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="O34" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4603,50 +4999,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>56401</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>156202</v>
+      </c>
+      <c r="C35" t="s">
+        <v>321</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="J35" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="K35" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="L35" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -4666,50 +5066,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>56401</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>156203</v>
+      </c>
+      <c r="C36" t="s">
+        <v>327</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="J36" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="K36" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="L36" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="O36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -4727,56 +5131,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="X36" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="Y36" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>56401</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>156204</v>
+      </c>
+      <c r="C37" t="s">
+        <v>336</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="J37" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="K37" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="L37" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="O37" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -4796,50 +5204,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>56401</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>156205</v>
+      </c>
+      <c r="C38" t="s">
+        <v>342</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="J38" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="K38" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="L38" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="O38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -4857,56 +5269,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="X38" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="Y38" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>56401</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>156206</v>
+      </c>
+      <c r="C39" t="s">
+        <v>351</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
+        <v>352</v>
+      </c>
+      <c r="G39" t="s">
+        <v>47</v>
+      </c>
+      <c r="H39" t="s">
+        <v>48</v>
+      </c>
+      <c r="I39" t="s">
+        <v>353</v>
+      </c>
+      <c r="J39" t="s">
+        <v>354</v>
+      </c>
+      <c r="K39" t="s">
+        <v>355</v>
+      </c>
+      <c r="L39" t="s">
+        <v>356</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
         <v>314</v>
       </c>
-      <c r="G39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
-      <c r="I39" t="s">
-        <v>315</v>
-      </c>
-      <c r="J39" t="s">
-        <v>316</v>
-      </c>
-      <c r="K39" t="s">
-        <v>317</v>
-      </c>
-      <c r="L39" t="s">
-        <v>318</v>
-      </c>
-      <c r="M39" t="n">
-        <v>5</v>
-      </c>
-      <c r="N39" t="s">
-        <v>282</v>
-      </c>
       <c r="O39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4926,50 +5342,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>56401</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>156207</v>
+      </c>
+      <c r="C40" t="s">
+        <v>357</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="J40" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="K40" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="L40" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
@@ -4989,41 +5409,45 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>56401</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>156208</v>
+      </c>
+      <c r="C41" t="s">
+        <v>364</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="J41" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="K41" t="s">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="L41" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="M41" t="n">
         <v>2</v>
@@ -5040,56 +5464,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="X41" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="Y41" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>56401</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>156209</v>
+      </c>
+      <c r="C42" t="s">
+        <v>373</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="J42" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="K42" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="L42" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="O42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5101,56 +5529,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="X42" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="Y42" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>56401</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>8070</v>
+      </c>
+      <c r="C43" t="s">
+        <v>379</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="J43" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="K43" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="L43" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="O43" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5162,56 +5594,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="X43" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="Y43" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>56401</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>156210</v>
+      </c>
+      <c r="C44" t="s">
+        <v>386</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="J44" t="s">
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="K44" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="L44" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -5227,56 +5663,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="X44" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="Y44" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>56401</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>156211</v>
+      </c>
+      <c r="C45" t="s">
+        <v>396</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="J45" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="K45" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="L45" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="O45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -5294,56 +5734,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="X45" t="s">
-        <v>360</v>
+        <v>404</v>
       </c>
       <c r="Y45" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>56401</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>156212</v>
+      </c>
+      <c r="C46" t="s">
+        <v>406</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="J46" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
       <c r="K46" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="L46" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="M46" t="n">
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="O46" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5359,56 +5803,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="X46" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="Y46" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>56401</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>156213</v>
+      </c>
+      <c r="C47" t="s">
+        <v>416</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="J47" t="s">
-        <v>373</v>
+        <v>419</v>
       </c>
       <c r="K47" t="s">
-        <v>374</v>
+        <v>420</v>
       </c>
       <c r="L47" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="O47" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
@@ -5426,56 +5874,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="X47" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="Y47" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>56401</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>156214</v>
+      </c>
+      <c r="C48" t="s">
+        <v>425</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>379</v>
+        <v>426</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>380</v>
+        <v>427</v>
       </c>
       <c r="J48" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="K48" t="s">
-        <v>382</v>
+        <v>429</v>
       </c>
       <c r="L48" t="s">
-        <v>383</v>
+        <v>430</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="O48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5493,47 +5945,51 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="X48" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="Y48" t="s">
-        <v>386</v>
+        <v>433</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>56401</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>156215</v>
+      </c>
+      <c r="C49" t="s">
+        <v>434</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>388</v>
+        <v>436</v>
       </c>
       <c r="J49" t="s">
-        <v>389</v>
+        <v>437</v>
       </c>
       <c r="K49" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
       <c r="L49" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
@@ -5560,56 +6016,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="X49" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="Y49" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>56401</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>156216</v>
+      </c>
+      <c r="C50" t="s">
+        <v>443</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="J50" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="K50" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="L50" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5625,56 +6085,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="X50" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="Y50" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>56401</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>31207</v>
+      </c>
+      <c r="C51" t="s">
+        <v>453</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>404</v>
+        <v>454</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>405</v>
+        <v>455</v>
       </c>
       <c r="J51" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="K51" t="s">
-        <v>406</v>
+        <v>456</v>
       </c>
       <c r="L51" t="s">
-        <v>407</v>
+        <v>457</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="O51" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="n">
@@ -5692,47 +6156,51 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="X51" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="Y51" t="s">
-        <v>408</v>
+        <v>458</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>56401</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>156217</v>
+      </c>
+      <c r="C52" t="s">
+        <v>459</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>409</v>
+        <v>460</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="J52" t="s">
-        <v>411</v>
+        <v>462</v>
       </c>
       <c r="K52" t="s">
-        <v>412</v>
+        <v>463</v>
       </c>
       <c r="L52" t="s">
-        <v>413</v>
+        <v>464</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
@@ -5759,56 +6227,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="X52" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="Y52" t="s">
-        <v>414</v>
+        <v>465</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>56401</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>156218</v>
+      </c>
+      <c r="C53" t="s">
+        <v>466</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
       <c r="J53" t="s">
-        <v>417</v>
+        <v>469</v>
       </c>
       <c r="K53" t="s">
-        <v>418</v>
+        <v>470</v>
       </c>
       <c r="L53" t="s">
-        <v>419</v>
+        <v>471</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>420</v>
+        <v>472</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -5826,56 +6298,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>421</v>
+        <v>473</v>
       </c>
       <c r="X53" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="Y53" t="s">
-        <v>423</v>
+        <v>475</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>56401</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>156219</v>
+      </c>
+      <c r="C54" t="s">
+        <v>476</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>425</v>
+        <v>478</v>
       </c>
       <c r="J54" t="s">
-        <v>426</v>
+        <v>479</v>
       </c>
       <c r="K54" t="s">
-        <v>427</v>
+        <v>480</v>
       </c>
       <c r="L54" t="s">
-        <v>428</v>
+        <v>481</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -5895,50 +6371,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>428</v>
+        <v>481</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>56401</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>2674</v>
+      </c>
+      <c r="C55" t="s">
+        <v>483</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
       <c r="J55" t="s">
-        <v>432</v>
+        <v>486</v>
       </c>
       <c r="K55" t="s">
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="L55" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>435</v>
+        <v>489</v>
       </c>
       <c r="O55" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="n">
@@ -5956,56 +6436,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>436</v>
+        <v>490</v>
       </c>
       <c r="X55" t="s">
-        <v>437</v>
+        <v>491</v>
       </c>
       <c r="Y55" t="s">
-        <v>438</v>
+        <v>492</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>56401</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>156220</v>
+      </c>
+      <c r="C56" t="s">
+        <v>493</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>439</v>
+        <v>494</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>440</v>
+        <v>495</v>
       </c>
       <c r="J56" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
       <c r="K56" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
       <c r="L56" t="s">
-        <v>443</v>
+        <v>498</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>444</v>
+        <v>499</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -6021,56 +6505,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>445</v>
+        <v>500</v>
       </c>
       <c r="X56" t="s">
-        <v>446</v>
+        <v>501</v>
       </c>
       <c r="Y56" t="s">
-        <v>447</v>
+        <v>502</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>56401</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>156221</v>
+      </c>
+      <c r="C57" t="s">
+        <v>503</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="J57" t="s">
-        <v>450</v>
+        <v>506</v>
       </c>
       <c r="K57" t="s">
-        <v>451</v>
+        <v>507</v>
       </c>
       <c r="L57" t="s">
-        <v>452</v>
+        <v>508</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>444</v>
+        <v>499</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6090,50 +6578,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>452</v>
+        <v>508</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>56401</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>156222</v>
+      </c>
+      <c r="C58" t="s">
+        <v>509</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>453</v>
+        <v>510</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>454</v>
+        <v>511</v>
       </c>
       <c r="J58" t="s">
-        <v>455</v>
+        <v>512</v>
       </c>
       <c r="K58" t="s">
-        <v>456</v>
+        <v>513</v>
       </c>
       <c r="L58" t="s">
-        <v>457</v>
+        <v>514</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>458</v>
+        <v>515</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6151,50 +6643,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>457</v>
+        <v>514</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>56401</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>156223</v>
+      </c>
+      <c r="C59" t="s">
+        <v>516</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>459</v>
+        <v>517</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
       <c r="J59" t="s">
-        <v>461</v>
+        <v>519</v>
       </c>
       <c r="K59" t="s">
-        <v>462</v>
+        <v>520</v>
       </c>
       <c r="L59" t="s">
-        <v>463</v>
+        <v>521</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>458</v>
+        <v>515</v>
       </c>
       <c r="O59" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="n">
@@ -6212,56 +6708,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>464</v>
+        <v>522</v>
       </c>
       <c r="X59" t="s">
-        <v>465</v>
+        <v>523</v>
       </c>
       <c r="Y59" t="s">
-        <v>466</v>
+        <v>524</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>56401</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>53367</v>
+      </c>
+      <c r="C60" t="s">
+        <v>525</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>467</v>
+        <v>526</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>468</v>
+        <v>527</v>
       </c>
       <c r="J60" t="s">
-        <v>461</v>
+        <v>519</v>
       </c>
       <c r="K60" t="s">
-        <v>469</v>
+        <v>528</v>
       </c>
       <c r="L60" t="s">
-        <v>470</v>
+        <v>529</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>444</v>
+        <v>499</v>
       </c>
       <c r="O60" t="s">
-        <v>471</v>
+        <v>530</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -6279,50 +6779,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>470</v>
+        <v>529</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>56401</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>4505</v>
+      </c>
+      <c r="C61" t="s">
+        <v>531</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>472</v>
+        <v>532</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>473</v>
+        <v>533</v>
       </c>
       <c r="J61" t="s">
-        <v>474</v>
+        <v>534</v>
       </c>
       <c r="K61" t="s">
-        <v>475</v>
+        <v>535</v>
       </c>
       <c r="L61" t="s">
-        <v>476</v>
+        <v>536</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>458</v>
+        <v>515</v>
       </c>
       <c r="O61" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="n">
@@ -6340,50 +6844,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>476</v>
+        <v>536</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>56401</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>156224</v>
+      </c>
+      <c r="C62" t="s">
+        <v>537</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>477</v>
+        <v>538</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>478</v>
+        <v>539</v>
       </c>
       <c r="J62" t="s">
-        <v>479</v>
+        <v>540</v>
       </c>
       <c r="K62" t="s">
-        <v>480</v>
+        <v>541</v>
       </c>
       <c r="L62" t="s">
-        <v>481</v>
+        <v>542</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>482</v>
+        <v>543</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -6403,50 +6911,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>481</v>
+        <v>542</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>56401</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>156225</v>
+      </c>
+      <c r="C63" t="s">
+        <v>544</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>483</v>
+        <v>545</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>484</v>
+        <v>546</v>
       </c>
       <c r="J63" t="s">
-        <v>485</v>
+        <v>547</v>
       </c>
       <c r="K63" t="s">
-        <v>486</v>
+        <v>548</v>
       </c>
       <c r="L63" t="s">
-        <v>487</v>
+        <v>549</v>
       </c>
       <c r="M63" t="n">
         <v>2</v>
       </c>
       <c r="N63" t="s">
-        <v>482</v>
+        <v>543</v>
       </c>
       <c r="O63" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P63" t="n">
         <v>2</v>
@@ -6464,56 +6976,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>488</v>
+        <v>550</v>
       </c>
       <c r="X63" t="s">
-        <v>489</v>
+        <v>551</v>
       </c>
       <c r="Y63" t="s">
-        <v>490</v>
+        <v>552</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>56401</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>23115</v>
+      </c>
+      <c r="C64" t="s">
+        <v>553</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>491</v>
+        <v>554</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>492</v>
+        <v>555</v>
       </c>
       <c r="J64" t="s">
-        <v>493</v>
+        <v>556</v>
       </c>
       <c r="K64" t="s">
-        <v>494</v>
+        <v>557</v>
       </c>
       <c r="L64" t="s">
-        <v>495</v>
+        <v>558</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>482</v>
+        <v>543</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="n">
@@ -6531,41 +7047,45 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>496</v>
+        <v>559</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>56401</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>105257</v>
+      </c>
+      <c r="C65" t="s">
+        <v>560</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>497</v>
+        <v>561</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>498</v>
+        <v>562</v>
       </c>
       <c r="J65" t="s">
-        <v>499</v>
+        <v>563</v>
       </c>
       <c r="K65" t="s">
-        <v>500</v>
+        <v>564</v>
       </c>
       <c r="L65" t="s">
-        <v>501</v>
+        <v>565</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
@@ -6592,56 +7112,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>488</v>
+        <v>550</v>
       </c>
       <c r="X65" t="s">
-        <v>489</v>
+        <v>551</v>
       </c>
       <c r="Y65" t="s">
-        <v>502</v>
+        <v>566</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>56401</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>17437</v>
+      </c>
+      <c r="C66" t="s">
+        <v>567</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>503</v>
+        <v>568</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>504</v>
+        <v>569</v>
       </c>
       <c r="J66" t="s">
-        <v>505</v>
+        <v>570</v>
       </c>
       <c r="K66" t="s">
-        <v>506</v>
+        <v>571</v>
       </c>
       <c r="L66" t="s">
-        <v>507</v>
+        <v>572</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>508</v>
+        <v>573</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -6665,50 +7189,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>507</v>
+        <v>572</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>56401</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>156226</v>
+      </c>
+      <c r="C67" t="s">
+        <v>574</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>509</v>
+        <v>575</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>510</v>
+        <v>576</v>
       </c>
       <c r="J67" t="s">
-        <v>511</v>
+        <v>577</v>
       </c>
       <c r="K67" t="s">
-        <v>512</v>
+        <v>578</v>
       </c>
       <c r="L67" t="s">
-        <v>513</v>
+        <v>579</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>514</v>
+        <v>580</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -6732,50 +7260,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>513</v>
+        <v>579</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>56401</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>156227</v>
+      </c>
+      <c r="C68" t="s">
+        <v>581</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>515</v>
+        <v>582</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>516</v>
+        <v>583</v>
       </c>
       <c r="J68" t="s">
-        <v>517</v>
+        <v>584</v>
       </c>
       <c r="K68" t="s">
-        <v>518</v>
+        <v>585</v>
       </c>
       <c r="L68" t="s">
-        <v>519</v>
+        <v>586</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>508</v>
+        <v>573</v>
       </c>
       <c r="O68" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6799,41 +7331,45 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>519</v>
+        <v>586</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>56401</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>156228</v>
+      </c>
+      <c r="C69" t="s">
+        <v>587</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>520</v>
+        <v>588</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>521</v>
+        <v>589</v>
       </c>
       <c r="J69" t="s">
-        <v>522</v>
+        <v>590</v>
       </c>
       <c r="K69" t="s">
-        <v>523</v>
+        <v>591</v>
       </c>
       <c r="L69" t="s">
-        <v>524</v>
+        <v>592</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
@@ -6852,50 +7388,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>525</v>
+        <v>593</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>56401</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>1369</v>
+      </c>
+      <c r="C70" t="s">
+        <v>594</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>526</v>
+        <v>595</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>527</v>
+        <v>596</v>
       </c>
       <c r="J70" t="s">
-        <v>528</v>
+        <v>597</v>
       </c>
       <c r="K70" t="s">
-        <v>529</v>
+        <v>598</v>
       </c>
       <c r="L70" t="s">
-        <v>530</v>
+        <v>599</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>514</v>
+        <v>580</v>
       </c>
       <c r="O70" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6919,50 +7459,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>530</v>
+        <v>599</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>56401</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>16835</v>
+      </c>
+      <c r="C71" t="s">
+        <v>600</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>531</v>
+        <v>601</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>532</v>
+        <v>602</v>
       </c>
       <c r="J71" t="s">
-        <v>533</v>
+        <v>603</v>
       </c>
       <c r="K71" t="s">
-        <v>534</v>
+        <v>604</v>
       </c>
       <c r="L71" t="s">
-        <v>535</v>
+        <v>605</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
       </c>
       <c r="N71" t="s">
-        <v>514</v>
+        <v>580</v>
       </c>
       <c r="O71" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P71" t="n">
         <v>3</v>
@@ -6984,56 +7528,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>536</v>
+        <v>606</v>
       </c>
       <c r="X71" t="s">
-        <v>537</v>
+        <v>607</v>
       </c>
       <c r="Y71" t="s">
-        <v>538</v>
+        <v>608</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>56401</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>156229</v>
+      </c>
+      <c r="C72" t="s">
+        <v>609</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>539</v>
+        <v>610</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>540</v>
+        <v>611</v>
       </c>
       <c r="J72" t="s">
-        <v>541</v>
+        <v>612</v>
       </c>
       <c r="K72" t="s">
-        <v>542</v>
+        <v>613</v>
       </c>
       <c r="L72" t="s">
-        <v>543</v>
+        <v>614</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>544</v>
+        <v>615</v>
       </c>
       <c r="O72" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7057,41 +7605,45 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>543</v>
+        <v>614</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>56401</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>51581</v>
+      </c>
+      <c r="C73" t="s">
+        <v>616</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>545</v>
+        <v>617</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>546</v>
+        <v>618</v>
       </c>
       <c r="J73" t="s">
-        <v>547</v>
+        <v>619</v>
       </c>
       <c r="K73" t="s">
-        <v>548</v>
+        <v>620</v>
       </c>
       <c r="L73" t="s">
-        <v>549</v>
+        <v>621</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
@@ -7120,50 +7672,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>549</v>
+        <v>621</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>56401</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>156230</v>
+      </c>
+      <c r="C74" t="s">
+        <v>622</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>550</v>
+        <v>623</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>551</v>
+        <v>624</v>
       </c>
       <c r="J74" t="s">
-        <v>552</v>
+        <v>625</v>
       </c>
       <c r="K74" t="s">
-        <v>553</v>
+        <v>626</v>
       </c>
       <c r="L74" t="s">
-        <v>554</v>
+        <v>627</v>
       </c>
       <c r="M74" t="n">
         <v>2</v>
       </c>
       <c r="N74" t="s">
-        <v>544</v>
+        <v>615</v>
       </c>
       <c r="O74" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P74" t="n">
         <v>3</v>
@@ -7185,56 +7741,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>555</v>
+        <v>628</v>
       </c>
       <c r="X74" t="s">
-        <v>556</v>
+        <v>629</v>
       </c>
       <c r="Y74" t="s">
-        <v>557</v>
+        <v>630</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>56401</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>156231</v>
+      </c>
+      <c r="C75" t="s">
+        <v>631</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>558</v>
+        <v>632</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>559</v>
+        <v>633</v>
       </c>
       <c r="J75" t="s">
-        <v>560</v>
+        <v>634</v>
       </c>
       <c r="K75" t="s">
-        <v>561</v>
+        <v>635</v>
       </c>
       <c r="L75" t="s">
-        <v>562</v>
+        <v>636</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>563</v>
+        <v>637</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="n">
         <v>4</v>
@@ -7256,56 +7816,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>564</v>
+        <v>638</v>
       </c>
       <c r="X75" t="s">
-        <v>565</v>
+        <v>639</v>
       </c>
       <c r="Y75" t="s">
-        <v>566</v>
+        <v>640</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>56401</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>2798</v>
+      </c>
+      <c r="C76" t="s">
+        <v>641</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>567</v>
+        <v>642</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>568</v>
+        <v>643</v>
       </c>
       <c r="J76" t="s">
-        <v>569</v>
+        <v>644</v>
       </c>
       <c r="K76" t="s">
-        <v>570</v>
+        <v>645</v>
       </c>
       <c r="L76" t="s">
-        <v>571</v>
+        <v>646</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>572</v>
+        <v>647</v>
       </c>
       <c r="O76" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7327,56 +7891,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>573</v>
+        <v>648</v>
       </c>
       <c r="X76" t="s">
-        <v>574</v>
+        <v>649</v>
       </c>
       <c r="Y76" t="s">
-        <v>575</v>
+        <v>650</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>56401</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>37702</v>
+      </c>
+      <c r="C77" t="s">
+        <v>651</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>576</v>
+        <v>652</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>577</v>
+        <v>653</v>
       </c>
       <c r="J77" t="s">
-        <v>578</v>
+        <v>654</v>
       </c>
       <c r="K77" t="s">
-        <v>579</v>
+        <v>655</v>
       </c>
       <c r="L77" t="s">
-        <v>580</v>
+        <v>656</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>581</v>
+        <v>657</v>
       </c>
       <c r="O77" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -7400,50 +7968,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>580</v>
+        <v>656</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>56401</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>156232</v>
+      </c>
+      <c r="C78" t="s">
+        <v>658</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>582</v>
+        <v>659</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>583</v>
+        <v>660</v>
       </c>
       <c r="J78" t="s">
-        <v>584</v>
+        <v>661</v>
       </c>
       <c r="K78" t="s">
-        <v>585</v>
+        <v>662</v>
       </c>
       <c r="L78" t="s">
-        <v>586</v>
+        <v>663</v>
       </c>
       <c r="M78" t="n">
         <v>3</v>
       </c>
       <c r="N78" t="s">
-        <v>581</v>
+        <v>657</v>
       </c>
       <c r="O78" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P78" t="n">
         <v>3</v>
@@ -7465,56 +8037,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>587</v>
+        <v>664</v>
       </c>
       <c r="X78" t="s">
-        <v>588</v>
+        <v>665</v>
       </c>
       <c r="Y78" t="s">
-        <v>589</v>
+        <v>666</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>56401</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>156233</v>
+      </c>
+      <c r="C79" t="s">
+        <v>667</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>590</v>
+        <v>668</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>591</v>
+        <v>669</v>
       </c>
       <c r="J79" t="s">
-        <v>592</v>
+        <v>670</v>
       </c>
       <c r="K79" t="s">
-        <v>593</v>
+        <v>671</v>
       </c>
       <c r="L79" t="s">
-        <v>594</v>
+        <v>672</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>581</v>
+        <v>657</v>
       </c>
       <c r="O79" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7538,41 +8114,45 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>594</v>
+        <v>672</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>56401</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>156234</v>
+      </c>
+      <c r="C80" t="s">
+        <v>673</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>595</v>
+        <v>674</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>596</v>
+        <v>675</v>
       </c>
       <c r="J80" t="s">
-        <v>597</v>
+        <v>676</v>
       </c>
       <c r="K80" t="s">
-        <v>598</v>
+        <v>677</v>
       </c>
       <c r="L80" t="s">
-        <v>599</v>
+        <v>678</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
@@ -7601,7 +8181,7 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>600</v>
+        <v>679</v>
       </c>
     </row>
     <row r="81">
@@ -7614,37 +8194,37 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>601</v>
+        <v>680</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>602</v>
+        <v>681</v>
       </c>
       <c r="J81" t="s">
-        <v>603</v>
+        <v>682</v>
       </c>
       <c r="K81" t="s">
-        <v>604</v>
+        <v>683</v>
       </c>
       <c r="L81" t="s">
-        <v>605</v>
+        <v>684</v>
       </c>
       <c r="M81" t="n">
         <v>3</v>
       </c>
       <c r="N81" t="s">
-        <v>606</v>
+        <v>685</v>
       </c>
       <c r="O81" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P81" t="n">
         <v>4</v>
@@ -7666,56 +8246,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>607</v>
+        <v>686</v>
       </c>
       <c r="X81" t="s">
-        <v>608</v>
+        <v>687</v>
       </c>
       <c r="Y81" t="s">
-        <v>609</v>
+        <v>688</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>56401</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>4433</v>
+      </c>
+      <c r="C82" t="s">
+        <v>689</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>610</v>
+        <v>690</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>611</v>
+        <v>691</v>
       </c>
       <c r="J82" t="s">
-        <v>612</v>
+        <v>692</v>
       </c>
       <c r="K82" t="s">
-        <v>613</v>
+        <v>693</v>
       </c>
       <c r="L82" t="s">
-        <v>614</v>
+        <v>694</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>615</v>
+        <v>695</v>
       </c>
       <c r="O82" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -7739,50 +8323,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>614</v>
+        <v>694</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>56401</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>118053</v>
+      </c>
+      <c r="C83" t="s">
+        <v>696</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>616</v>
+        <v>697</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>617</v>
+        <v>698</v>
       </c>
       <c r="J83" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="K83" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="L83" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>615</v>
+        <v>695</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -7806,50 +8394,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>56401</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>156235</v>
+      </c>
+      <c r="C84" t="s">
+        <v>703</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>622</v>
+        <v>704</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>623</v>
+        <v>705</v>
       </c>
       <c r="J84" t="s">
-        <v>624</v>
+        <v>706</v>
       </c>
       <c r="K84" t="s">
-        <v>625</v>
+        <v>707</v>
       </c>
       <c r="L84" t="s">
-        <v>626</v>
+        <v>708</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>627</v>
+        <v>709</v>
       </c>
       <c r="O84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -7873,50 +8465,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>626</v>
+        <v>708</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>56401</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>156236</v>
+      </c>
+      <c r="C85" t="s">
+        <v>710</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>628</v>
+        <v>711</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>629</v>
+        <v>712</v>
       </c>
       <c r="J85" t="s">
-        <v>630</v>
+        <v>713</v>
       </c>
       <c r="K85" t="s">
-        <v>631</v>
+        <v>714</v>
       </c>
       <c r="L85" t="s">
-        <v>632</v>
+        <v>715</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>633</v>
+        <v>716</v>
       </c>
       <c r="O85" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P85" t="n">
         <v>4</v>
@@ -7940,50 +8536,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>632</v>
+        <v>715</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>56401</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>156237</v>
+      </c>
+      <c r="C86" t="s">
+        <v>717</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>634</v>
+        <v>718</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>635</v>
+        <v>719</v>
       </c>
       <c r="J86" t="s">
-        <v>636</v>
+        <v>720</v>
       </c>
       <c r="K86" t="s">
-        <v>637</v>
+        <v>721</v>
       </c>
       <c r="L86" t="s">
-        <v>638</v>
+        <v>722</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>633</v>
+        <v>716</v>
       </c>
       <c r="O86" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8007,50 +8607,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>638</v>
+        <v>722</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>56401</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>3612</v>
+      </c>
+      <c r="C87" t="s">
+        <v>723</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>639</v>
+        <v>724</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>640</v>
+        <v>725</v>
       </c>
       <c r="J87" t="s">
-        <v>641</v>
+        <v>726</v>
       </c>
       <c r="K87" t="s">
-        <v>642</v>
+        <v>727</v>
       </c>
       <c r="L87" t="s">
-        <v>643</v>
+        <v>728</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>644</v>
+        <v>729</v>
       </c>
       <c r="O87" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="P87" t="n">
         <v>4</v>
@@ -8074,50 +8678,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>643</v>
+        <v>728</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>56401</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>156238</v>
+      </c>
+      <c r="C88" t="s">
+        <v>730</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>645</v>
+        <v>731</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>646</v>
+        <v>732</v>
       </c>
       <c r="J88" t="s">
-        <v>647</v>
+        <v>733</v>
       </c>
       <c r="K88" t="s">
-        <v>648</v>
+        <v>734</v>
       </c>
       <c r="L88" t="s">
-        <v>649</v>
+        <v>735</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>644</v>
+        <v>729</v>
       </c>
       <c r="O88" t="s">
-        <v>471</v>
+        <v>530</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8141,41 +8749,45 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>649</v>
+        <v>735</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>56401</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>156239</v>
+      </c>
+      <c r="C89" t="s">
+        <v>736</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>650</v>
+        <v>737</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>651</v>
+        <v>738</v>
       </c>
       <c r="J89" t="s">
-        <v>652</v>
+        <v>739</v>
       </c>
       <c r="K89" t="s">
-        <v>653</v>
+        <v>740</v>
       </c>
       <c r="L89" t="s">
-        <v>654</v>
+        <v>741</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
@@ -8204,50 +8816,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>655</v>
+        <v>742</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>56401</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>97</v>
+      </c>
+      <c r="C90" t="s">
+        <v>743</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>656</v>
+        <v>744</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>657</v>
+        <v>745</v>
       </c>
       <c r="J90" t="s">
-        <v>658</v>
+        <v>746</v>
       </c>
       <c r="K90" t="s">
-        <v>659</v>
+        <v>747</v>
       </c>
       <c r="L90" t="s">
-        <v>660</v>
+        <v>748</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>661</v>
+        <v>749</v>
       </c>
       <c r="O90" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -8271,50 +8887,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>660</v>
+        <v>748</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>56401</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>156240</v>
+      </c>
+      <c r="C91" t="s">
+        <v>750</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>662</v>
+        <v>751</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>663</v>
+        <v>752</v>
       </c>
       <c r="J91" t="s">
-        <v>664</v>
+        <v>753</v>
       </c>
       <c r="K91" t="s">
-        <v>665</v>
+        <v>754</v>
       </c>
       <c r="L91" t="s">
-        <v>666</v>
+        <v>755</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>661</v>
+        <v>749</v>
       </c>
       <c r="O91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -8338,7 +8958,7 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>666</v>
+        <v>755</v>
       </c>
     </row>
   </sheetData>
